--- a/WikiViewer Documents/product_backlog.xlsx
+++ b/WikiViewer Documents/product_backlog.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11955" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Φύλλο2" sheetId="2" r:id="rId2"/>
-    <sheet name="Φύλλο3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>A/A</t>
   </si>
@@ -36,12 +36,6 @@
     <t>R0: Δημιουργία script για ΒΔ σε Java Derby (Setup Database &amp; Project) &amp; POJO Classes</t>
   </si>
   <si>
-    <t>Story Points</t>
-  </si>
-  <si>
-    <t>T-shirt size</t>
-  </si>
-  <si>
     <t>[R1: Αναζήτηση Άρθρου από API] R1.2 Search UI (Search panel με TextField + Button)</t>
   </si>
   <si>
@@ -81,18 +75,6 @@
     <t>Priority Poker</t>
   </si>
   <si>
-    <t>XXL</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>XL</t>
-  </si>
-  <si>
     <t>[R3: Σχόλια &amp; Βαθμολογίες] R3.2 Ratings Feature (Βαθμολόγηση άρθρων 1-5 stars)</t>
   </si>
   <si>
@@ -117,9 +99,6 @@
     <t>[R6: Στατιστικά] R6.2 Statistics Table (Πίνακας με top searched άρθρα)</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>[R6: Στατιστικά] R6.3 Bar Chart (Ραβδόγραμμα top άρθρων)</t>
   </si>
   <si>
@@ -127,6 +106,9 @@
   </si>
   <si>
     <t>[R6: Στατιστικά] R6.5 PDF Export (Εξαγωγή στατιστικών σε PDF)</t>
+  </si>
+  <si>
+    <t>acceptance criteria</t>
   </si>
 </sst>
 </file>
@@ -164,7 +146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,8 +171,14 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -224,6 +212,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -248,26 +249,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -290,6 +276,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -584,358 +583,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="95.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="C1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6">
-        <v>32</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="C2" s="6"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="C3" s="6"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6">
-        <v>64</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="C4" s="6"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="6">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="6">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="6">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5">
-        <v>16</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="C8" s="5"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="6">
-        <v>32</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6">
-        <v>32</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="6">
-        <v>4</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6">
-        <v>32</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="6">
-        <v>64</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="6">
-        <v>32</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6">
-        <v>32</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="6">
-        <v>8</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="18">
-        <v>8</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="6">
-        <v>16</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="17">
+        <v>14</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="12">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="6">
-        <v>16</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -957,218 +902,177 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="91.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>7</v>
-      </c>
+      <c r="C1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="6">
-        <v>64</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="B2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="19">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="B3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="6">
-        <v>32</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="B4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="6">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="B5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="21"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="6">
-        <v>32</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="B6" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="6">
-        <v>32</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="B7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="5">
-        <v>16</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="B8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="6">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="B9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="6">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="B10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="6">
-        <v>32</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="B11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="20"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="20"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="20"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="20"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="20"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="20"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="20"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="20"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="20"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="20"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="20"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="20"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="20"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="24"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="20"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WikiViewer Documents/product_backlog.xlsx
+++ b/WikiViewer Documents/product_backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>A/A</t>
   </si>
@@ -109,13 +109,100 @@
   </si>
   <si>
     <t>acceptance criteria</t>
+  </si>
+  <si>
+    <t>Δημιουργία GANTT Διαγράμματος</t>
+  </si>
+  <si>
+    <t>Testing - Integration Testing</t>
+  </si>
+  <si>
+    <t>Screenshots - User Guide (6 screenshots)</t>
+  </si>
+  <si>
+    <t>Video - Παρουσίαση 15 λεπτών</t>
+  </si>
+  <si>
+    <t>2. Ορισμός Primary/Foreign Keys.</t>
+  </si>
+  <si>
+    <t>3. Σχέσεις 1:N και M:N</t>
+  </si>
+  <si>
+    <t>1. Παρουσίαση όλων των οντοτήτων (Article, Category, Comment, Rating).</t>
+  </si>
+  <si>
+    <t>1. Συμμετοχή όλης της ομάδας.</t>
+  </si>
+  <si>
+    <t>2. Ανάθεση Story Points σε κάθε task.</t>
+  </si>
+  <si>
+    <t>3. Κατάταξη των tasks βάσει προτεραιότητας.</t>
+  </si>
+  <si>
+    <t>1. Επιτυχής κλήση του API με λέξη-κλειδί.</t>
+  </si>
+  <si>
+    <t>2. Σωστό parsing του JSON response σε Java objects.</t>
+  </si>
+  <si>
+    <t>3. Διαχείριση σφαλμάτων.</t>
+  </si>
+  <si>
+    <t>1. Ύπαρξη Text Field για εισαγωγή κειμένου.</t>
+  </si>
+  <si>
+    <t>2. Το Button "Search" ενεργοποιεί την αναζήτηση.</t>
+  </si>
+  <si>
+    <t>1. Εμφάνιση αποτελεσμάτων σε μορφή πίνακα.</t>
+  </si>
+  <si>
+    <t>2. Στήλες: Τίτλος, Ημερομηνία, Απόσπασμα.</t>
+  </si>
+  <si>
+    <t>3. Δυνατότητα επιλογής (selection) μιας γραμμής από τον χρήστη.</t>
+  </si>
+  <si>
+    <t>1. Αποθήκευση στη Java Derby.</t>
+  </si>
+  <si>
+    <t>2. Αν το άρθρο υπάρχει ήδη, γίνεται Update (Merge) των στοιχείων.</t>
+  </si>
+  <si>
+    <t>3. Επιβεβαίωση "Success" στον χρήστη.</t>
+  </si>
+  <si>
+    <t>1. Τα πεδία κειμένου είναι επεξεργάσιμα.</t>
+  </si>
+  <si>
+    <t>2. Το κουμπί "Save" ενημερώνει τη βάση δεδομένων.</t>
+  </si>
+  <si>
+    <t>3. Validation: Δεν επιτρέπεται κενός τίτλος.</t>
+  </si>
+  <si>
+    <t>1. Πεδίο εισαγωγής σχολίου (TextArea).</t>
+  </si>
+  <si>
+    <t>2. Τα σχόλια συνδέονται με το συγκεκριμένο άρθρο (Foreign Key).</t>
+  </si>
+  <si>
+    <t>1. UI με 5 αστέρια</t>
+  </si>
+  <si>
+    <t>1. Επιλογή κατηγορίας από JComboBox/List.</t>
+  </si>
+  <si>
+    <t>2. Ο JTable ανανεώνεται αυτόματα με τα φιλτραρισμένα άρθρα.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,12 +210,6 @@
       <family val="2"/>
       <charset val="161"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Cambria"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -146,7 +227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,8 +258,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -225,24 +318,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -253,24 +455,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -282,13 +478,138 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -583,316 +904,445 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="95.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="66.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="12"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4">
+      <c r="A3" s="49">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4">
+      <c r="A5" s="32">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="15"/>
+      <c r="C5" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="12"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="4">
+      <c r="A6" s="33"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="34"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="36">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4">
+      <c r="C8" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="37"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="38"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="51">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B11" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4">
+      <c r="C11" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="52"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="53"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B14" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4">
+      <c r="C14" s="26"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="51">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B15" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4">
+      <c r="C15" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="52"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="53"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="57">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B18" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4">
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="58"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="60">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B20" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4">
+      <c r="C20" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="60"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="60"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="35">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B23" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4">
+      <c r="C23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="35"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="35"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="49">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B26" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4">
+      <c r="C26" s="27"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="66">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B27" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4">
+      <c r="C27" s="1"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="51">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B28" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="4">
+      <c r="C28" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="52"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="53"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="36">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B31" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
+      <c r="C31" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="38"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="49">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B33" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
+      <c r="C33" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="69">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B34" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="12">
+      <c r="C34" s="31"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="50">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B35" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="C35" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="50"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -903,7 +1353,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -915,164 +1365,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="20"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="21"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="21"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="21"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="21"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="21"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="15"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="15"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="15"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="15"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="15"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="15"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="15"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="15"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="15"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="15"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="15"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="19"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="15"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1082,13 +1532,101 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="91.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="24"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="13"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WikiViewer Documents/product_backlog.xlsx
+++ b/WikiViewer Documents/product_backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11955"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11955" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="99">
   <si>
     <t>A/A</t>
   </si>
@@ -108,9 +108,6 @@
     <t>[R6: Στατιστικά] R6.5 PDF Export (Εξαγωγή στατιστικών σε PDF)</t>
   </si>
   <si>
-    <t>acceptance criteria</t>
-  </si>
-  <si>
     <t>Δημιουργία GANTT Διαγράμματος</t>
   </si>
   <si>
@@ -123,15 +120,6 @@
     <t>Video - Παρουσίαση 15 λεπτών</t>
   </si>
   <si>
-    <t>2. Ορισμός Primary/Foreign Keys.</t>
-  </si>
-  <si>
-    <t>3. Σχέσεις 1:N και M:N</t>
-  </si>
-  <si>
-    <t>1. Παρουσίαση όλων των οντοτήτων (Article, Category, Comment, Rating).</t>
-  </si>
-  <si>
     <t>1. Συμμετοχή όλης της ομάδας.</t>
   </si>
   <si>
@@ -144,9 +132,6 @@
     <t>1. Επιτυχής κλήση του API με λέξη-κλειδί.</t>
   </si>
   <si>
-    <t>2. Σωστό parsing του JSON response σε Java objects.</t>
-  </si>
-  <si>
     <t>3. Διαχείριση σφαλμάτων.</t>
   </si>
   <si>
@@ -156,24 +141,9 @@
     <t>2. Το Button "Search" ενεργοποιεί την αναζήτηση.</t>
   </si>
   <si>
-    <t>1. Εμφάνιση αποτελεσμάτων σε μορφή πίνακα.</t>
-  </si>
-  <si>
-    <t>2. Στήλες: Τίτλος, Ημερομηνία, Απόσπασμα.</t>
-  </si>
-  <si>
-    <t>3. Δυνατότητα επιλογής (selection) μιας γραμμής από τον χρήστη.</t>
-  </si>
-  <si>
     <t>1. Αποθήκευση στη Java Derby.</t>
   </si>
   <si>
-    <t>2. Αν το άρθρο υπάρχει ήδη, γίνεται Update (Merge) των στοιχείων.</t>
-  </si>
-  <si>
-    <t>3. Επιβεβαίωση "Success" στον χρήστη.</t>
-  </si>
-  <si>
     <t>1. Τα πεδία κειμένου είναι επεξεργάσιμα.</t>
   </si>
   <si>
@@ -196,13 +166,206 @@
   </si>
   <si>
     <t>2. Ο JTable ανανεώνεται αυτόματα με τα φιλτραρισμένα άρθρα.</t>
+  </si>
+  <si>
+    <t>Αcceptance criteria</t>
+  </si>
+  <si>
+    <t>1. Αφαίρεση επαναλαμβανόμενου κώδικα</t>
+  </si>
+  <si>
+    <t>2. Ορθός ορισμός σχέσεων (Inheritance, Composition, Association).</t>
+  </si>
+  <si>
+    <t>1. Ολοκλήρωση των ενοτήτων: Εισαγωγή, Ανάλυση Απαιτήσεων, Σχεδιασμός ΒΔ.</t>
+  </si>
+  <si>
+    <t>2. Ενσωμάτωση των διαγραμμάτων (ER &amp; Class) &amp; κώδικα.</t>
+  </si>
+  <si>
+    <t>3. Τεκμηρίωση των λειτουργιών και δυνατοτήτων της εφαρμογής</t>
+  </si>
+  <si>
+    <t>1. Ύπαρξη διακριτού Search Bar για αναζήτηση στη βάση δεδομένων.</t>
+  </si>
+  <si>
+    <t>2. Τα αποτελέσματα εμφανίζονται στον υπάρχοντα Jtable</t>
+  </si>
+  <si>
+    <t>3. Εμφάνιση μηνυμάτων στον χρήστη σε περίπτωση λάθος χρήσης</t>
+  </si>
+  <si>
+    <t>1. Υλοποίηση SQL query</t>
+  </si>
+  <si>
+    <t>1. Εμφάνιση πίνακα με τα άρθρα.</t>
+  </si>
+  <si>
+    <t>2. Στήλες: Τίτλος Άρθρου, Αριθμός Αναζητήσεων/Προβολών.</t>
+  </si>
+  <si>
+    <t>3. Δυνατότητα ανανέωσης του γραφήματος (Refresh).</t>
+  </si>
+  <si>
+    <t>1. Δημιουργία αρχείου .pdf με το πάτημα ενός κουμπιού.</t>
+  </si>
+  <si>
+    <t>1. Απεικόνιση όλων των tasks και των 3 Sprints σε χρονοδιάγραμμα.</t>
+  </si>
+  <si>
+    <t>1. Έλεγχος μορφοποίησης, ορθογραφίας και συντάξεως σύμφωνα με τις προδιαγραφές.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Θα πρέπει να φαίνεται η συμμετοχή των μελών καθώς και ημερομηνία </t>
+  </si>
+  <si>
+    <t>2. Διαχωρισμός κώδικα σε πακέτα: .model (Derby/Entities), .view (Swing GUI), .controller (Logic).</t>
+  </si>
+  <si>
+    <t>3. Χρήση του Singleton Pattern για τη διαχείριση της σύνδεσης με τη βάση Derby.</t>
+  </si>
+  <si>
+    <t>1. Απεικόνιση των POJO classes (Article) και των κλάσεων διασύνδεσης (DB Manager).</t>
+  </si>
+  <si>
+    <t>3. Σωστή χρήση βελών κληρονομικότητας και συσχέτισης (UML standards).</t>
+  </si>
+  <si>
+    <t>2. Πρόβλεψη για την περίπτωση που η αναζήτηση επιστρέφει μηδενικά αποτελέσματα (User Alert).</t>
+  </si>
+  <si>
+    <t>1. Δημιουργία μεθόδου που μετράει τις αναζητήσεις ανά άρθρο (Update counter στη ΒΔ).</t>
+  </si>
+  <si>
+    <t>2. Ταξινόμηση (Sort) των δεδομένων για την εξαγωγή των Top 5 δημοφιλέστερων άρθρων.</t>
+  </si>
+  <si>
+    <t>1. Επιτυχής ενσωμάτωση της βιβλιοθήκης JFreeChart στο Project.</t>
+  </si>
+  <si>
+    <t>2. Δυναμική παραγωγή γραφήματος που τραβάει δεδομένα απευθείας από τη Derby.</t>
+  </si>
+  <si>
+    <t>2. Το PDF αποθηκεύεται με όνομα που περιέχει timestamp</t>
+  </si>
+  <si>
+    <t>1. Σχεδιασμός οντοτήτων Article (id, title, url, extract) και Stats.</t>
+  </si>
+  <si>
+    <t>2. Ορισμός Primary Keys και κατάλληλων τύπων δεδομένων</t>
+  </si>
+  <si>
+    <t>3. Απεικόνιση της σχέσης μεταξύ άρθρων και στατιστικών αναζήτησης.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Δημιουργία κλάσης </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t>Article.java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> με getters/setters και constructor.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Script δημιουργίας πινάκων στη Derby (Embedded mode).</t>
+  </si>
+  <si>
+    <t>3. Έλεγχος επιτυχούς σύνδεσης (Connection) κατά την εκκίνηση του project.</t>
+  </si>
+  <si>
+    <t>2. Parsing του JSON response για τα πεδία: Title, URL, Extract.</t>
+  </si>
+  <si>
+    <t>1. Ο JTable πρέπει να είναι μη-επεξεργάσιμος (read-only) από τον χρήστη.</t>
+  </si>
+  <si>
+    <t>2. Δυνατότητα επιλογής μιας ολόκληρης γραμμής (Single Selection Mode).</t>
+  </si>
+  <si>
+    <t>3. Εμφάνιση scroll bar αν τα αποτελέσματα υπερβαίνουν το ύψος του panel.</t>
+  </si>
+  <si>
+    <t>2. Αποτροπή αποθήκευσης κενών αποτελεσμάτων.</t>
+  </si>
+  <si>
+    <t>3. Transaction handling: Commit των αλλαγών στη βάση μόνο αν η εγγραφή ολοκληρωθεί επιτυχώς.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Χρήση </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t>JFrame</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ως κύριο κοντέινερ.</t>
+    </r>
+  </si>
+  <si>
+    <t>Acceptance criteria</t>
+  </si>
+  <si>
+    <t>2. Σαφής διαχωρισμός μεταξύ των Tasks ανάπτυξης και των Tasks τεκμηρίωσης.</t>
+  </si>
+  <si>
+    <t>1. Συγγραφή Unit Tests για τη σύνδεση με τη Derby και το API Parsing.</t>
+  </si>
+  <si>
+    <t>2. Διεξαγωγή Integration Test: Επιβεβαίωση ότι η αναζήτηση στο API ενημερώνει σωστά τη βάση και τα στατιστικά ταυτόχρονα.</t>
+  </si>
+  <si>
+    <t>3. Bug Report: Καταγραφή και επίλυση προβλημάτων που αφορούν τα ελληνικά fonts (UTF-8).</t>
+  </si>
+  <si>
+    <t>2. Επεξήγηση κάθε UI component (κουμπιά, μενού) για τον τελικό χρήστη.</t>
+  </si>
+  <si>
+    <t>2. Live Demo της εφαρμογής σε πραγματικό χρόνο.</t>
+  </si>
+  <si>
+    <t>3. Σύντομη επεξήγηση των πιο σημαντικών τμημάτων του κώδικα</t>
+  </si>
+  <si>
+    <t>1. Διάρκεια αυστηρά εντός των ορίων (περίπου 15 λεπτά).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,8 +389,15 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,12 +419,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,7 +435,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -423,10 +587,17 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -434,16 +605,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -456,9 +624,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -472,144 +637,231 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -904,388 +1156,398 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="95.85546875" customWidth="1"/>
-    <col min="3" max="3" width="66.42578125" customWidth="1"/>
+    <col min="2" max="2" width="92.7109375" customWidth="1"/>
+    <col min="3" max="3" width="89.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
+      <c r="C1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="12"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="49">
+      <c r="A3" s="30">
         <v>2</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="32">
+      <c r="A5" s="57">
         <v>4</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="58"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="59"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="49">
+        <v>5</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="60"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="50"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="45">
+        <v>6</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="46"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="47"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75">
+      <c r="A14" s="49">
+        <v>7</v>
+      </c>
+      <c r="B14" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="84"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="60"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="84"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="50"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="84"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="45">
+        <v>8</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="46"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="47"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="33"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="28" t="s">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="52">
+        <v>9</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="34"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="47" t="s">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="99"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="36">
-        <v>5</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="37"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="38"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="51">
-        <v>6</v>
-      </c>
-      <c r="B11" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="52"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="53"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3">
-        <v>7</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="51">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="55">
+        <v>10</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="73"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="55"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="55"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="73"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="40">
+        <v>11</v>
+      </c>
+      <c r="B25" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="27" t="s">
+      <c r="C25" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="52"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="27" t="s">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="40"/>
+      <c r="B26" s="42"/>
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="73"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="40"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="73"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75">
+      <c r="A28" s="30">
+        <v>12</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="73"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="33">
+        <v>13</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="45">
+        <v>14</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="53"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="27" t="s">
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="46"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="57">
-        <v>9</v>
-      </c>
-      <c r="B18" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1" t="s">
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="47"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="71" t="s">
         <v>44</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="58"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="60">
-        <v>10</v>
-      </c>
-      <c r="B20" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="60"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="60"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="35">
-        <v>11</v>
-      </c>
-      <c r="B23" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="35"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="35"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="49">
-        <v>12</v>
-      </c>
-      <c r="B26" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="66">
-        <v>13</v>
-      </c>
-      <c r="B27" s="65" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="51">
-        <v>14</v>
-      </c>
-      <c r="B28" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="52"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="53"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="36">
-        <v>15</v>
-      </c>
-      <c r="B31" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="38"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="49">
+        <v>15</v>
+      </c>
+      <c r="B33" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="50"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="30">
         <v>16</v>
       </c>
-      <c r="B33" s="68" t="s">
+      <c r="B35" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="69">
+      <c r="C35" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="35">
         <v>17</v>
       </c>
-      <c r="B34" s="70" t="s">
+      <c r="B36" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="31"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="50">
+      <c r="C36" s="26"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="37">
         <v>18</v>
       </c>
-      <c r="B35" s="54" t="s">
+      <c r="B37" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="50"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="B37" s="2"/>
+      <c r="C37" s="70" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="B38" s="2"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="71" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="39" spans="1:3">
       <c r="B39" s="2"/>
@@ -1320,28 +1582,36 @@
     <row r="49" spans="2:2">
       <c r="B49" s="2"/>
     </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
+  <mergeCells count="22">
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A33:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1350,181 +1620,318 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="91.85546875" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="83.28515625" customWidth="1"/>
+    <col min="3" max="3" width="88.5703125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="17"/>
+      <c r="C1" s="100" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3">
+      <c r="A2" s="49">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3">
+      <c r="A3" s="60"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="50"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="45">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B5" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="18"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3">
+      <c r="C5" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="46"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="47"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="49">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B8" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3">
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="85"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="60"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="50"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="85"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="45">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B11" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="18"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3">
+      <c r="C11" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="85"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="46"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="84"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="47"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="84"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="49">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B14" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="18"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3">
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="84"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="50"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="84"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="45">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B16" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3">
+      <c r="C16" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="84"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="47"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="86"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="49">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B18" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="18"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3">
+      <c r="C18" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="50"/>
+      <c r="B19" s="65"/>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="73"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="45">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B20" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="18"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3">
+      <c r="C20" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="73"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="46"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="73"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="47"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="73"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="18"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3">
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="94">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B24" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="18"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="12"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="12"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="12"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="12"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="12"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="12"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="12"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="16"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="12"/>
+      <c r="C24" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="73"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="95"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="73"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="10"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="88"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="10"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="11"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="10"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="11"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="10"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="11"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="10"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="10"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="11"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="14"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -1532,100 +1939,170 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="91.28515625" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="113.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="73"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="49">
+        <v>1</v>
+      </c>
+      <c r="B2" s="63" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="73"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="60"/>
+      <c r="B3" s="64"/>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="73"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="45">
+        <v>2</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="C4" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="73"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="46"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="73"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="47"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="73"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="49">
+        <v>3</v>
+      </c>
+      <c r="B7" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="11"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="23" t="s">
+      <c r="C7" s="96" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="50"/>
+      <c r="B8" s="103"/>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="73"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="31">
+        <v>4</v>
+      </c>
+      <c r="B9" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="73"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="91">
+        <v>5</v>
+      </c>
+      <c r="B10" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="13"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="24"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="13"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="13"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="13"/>
+      <c r="C10" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="73"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="92"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="73"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="92"/>
+      <c r="B12" s="65"/>
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="73"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="93"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="88"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="10"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
